--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Slitrk6-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Slitrk6-Ptprs.xlsx
@@ -546,10 +546,10 @@
         <v>0.150197</v>
       </c>
       <c r="I2">
-        <v>0.0348477156889313</v>
+        <v>0.04018528407978143</v>
       </c>
       <c r="J2">
-        <v>0.0348477156889313</v>
+        <v>0.04018528407978143</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.260928666666667</v>
+        <v>4.925988333333333</v>
       </c>
       <c r="N2">
-        <v>12.782786</v>
+        <v>14.777965</v>
       </c>
       <c r="O2">
-        <v>0.05853043679913345</v>
+        <v>0.05656988822582037</v>
       </c>
       <c r="P2">
-        <v>0.05853043679913345</v>
+        <v>0.05656988822582035</v>
       </c>
       <c r="Q2">
-        <v>0.2133262343157778</v>
+        <v>0.2466228899005555</v>
       </c>
       <c r="R2">
-        <v>1.919936108842</v>
+        <v>2.219606009105</v>
       </c>
       <c r="S2">
-        <v>0.002039652020725164</v>
+        <v>0.002273277028716074</v>
       </c>
       <c r="T2">
-        <v>0.002039652020725164</v>
+        <v>0.002273277028716074</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.150197</v>
       </c>
       <c r="I3">
-        <v>0.0348477156889313</v>
+        <v>0.04018528407978143</v>
       </c>
       <c r="J3">
-        <v>0.0348477156889313</v>
+        <v>0.04018528407978143</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>142.755867</v>
       </c>
       <c r="O3">
-        <v>0.6536574461270805</v>
+        <v>0.5464678959362861</v>
       </c>
       <c r="P3">
-        <v>0.6536574461270805</v>
+        <v>0.5464678959362861</v>
       </c>
       <c r="Q3">
         <v>2.382389217311</v>
@@ -638,10 +638,10 @@
         <v>21.441502955799</v>
       </c>
       <c r="S3">
-        <v>0.02277846884058943</v>
+        <v>0.02195996763868009</v>
       </c>
       <c r="T3">
-        <v>0.02277846884058943</v>
+        <v>0.02195996763868009</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.150197</v>
       </c>
       <c r="I4">
-        <v>0.0348477156889313</v>
+        <v>0.04018528407978143</v>
       </c>
       <c r="J4">
-        <v>0.0348477156889313</v>
+        <v>0.04018528407978143</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.555122999999999</v>
+        <v>13.80191933333334</v>
       </c>
       <c r="N4">
-        <v>16.665369</v>
+        <v>41.40575800000001</v>
       </c>
       <c r="O4">
-        <v>0.07630819502014174</v>
+        <v>0.1585007882996995</v>
       </c>
       <c r="P4">
-        <v>0.07630819502014174</v>
+        <v>0.1585007882996994</v>
       </c>
       <c r="Q4">
-        <v>0.2781209364103333</v>
+        <v>0.691002292702889</v>
       </c>
       <c r="R4">
-        <v>2.503088427693</v>
+        <v>6.219020634326001</v>
       </c>
       <c r="S4">
-        <v>0.002659166284797422</v>
+        <v>0.006369399204692719</v>
       </c>
       <c r="T4">
-        <v>0.002659166284797422</v>
+        <v>0.006369399204692718</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.150197</v>
       </c>
       <c r="I5">
-        <v>0.0348477156889313</v>
+        <v>0.04018528407978143</v>
       </c>
       <c r="J5">
-        <v>0.0348477156889313</v>
+        <v>0.04018528407978143</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.724970666666667</v>
+        <v>12.18796133333333</v>
       </c>
       <c r="N5">
-        <v>23.174912</v>
+        <v>36.563884</v>
       </c>
       <c r="O5">
-        <v>0.106114404335759</v>
+        <v>0.1399661476381804</v>
       </c>
       <c r="P5">
-        <v>0.106114404335759</v>
+        <v>0.1399661476381803</v>
       </c>
       <c r="Q5">
-        <v>0.3867558064071111</v>
+        <v>0.6101984094608889</v>
       </c>
       <c r="R5">
-        <v>3.480802257664</v>
+        <v>5.491785685148</v>
       </c>
       <c r="S5">
-        <v>0.003697844592792827</v>
+        <v>0.005624579404392906</v>
       </c>
       <c r="T5">
-        <v>0.003697844592792827</v>
+        <v>0.005624579404392905</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>0.150197</v>
       </c>
       <c r="I6">
-        <v>0.0348477156889313</v>
+        <v>0.04018528407978143</v>
       </c>
       <c r="J6">
-        <v>0.0348477156889313</v>
+        <v>0.04018528407978143</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.6722</v>
+        <v>8.576764333333333</v>
       </c>
       <c r="N6">
-        <v>23.0166</v>
+        <v>25.730293</v>
       </c>
       <c r="O6">
-        <v>0.1053895177178852</v>
+        <v>0.09849527990001386</v>
       </c>
       <c r="P6">
-        <v>0.1053895177178852</v>
+        <v>0.09849527990001385</v>
       </c>
       <c r="Q6">
-        <v>0.3841138078</v>
+        <v>0.4294014241912222</v>
       </c>
       <c r="R6">
-        <v>3.4570242702</v>
+        <v>3.864612817721</v>
       </c>
       <c r="S6">
-        <v>0.003672583950026451</v>
+        <v>0.003958060803299642</v>
       </c>
       <c r="T6">
-        <v>0.003672583950026451</v>
+        <v>0.003958060803299642</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>3.004879</v>
       </c>
       <c r="I7">
-        <v>0.6971721743552812</v>
+        <v>0.8039569115253269</v>
       </c>
       <c r="J7">
-        <v>0.6971721743552812</v>
+        <v>0.8039569115253269</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.260928666666667</v>
+        <v>4.925988333333333</v>
       </c>
       <c r="N7">
-        <v>12.782786</v>
+        <v>14.777965</v>
       </c>
       <c r="O7">
-        <v>0.05853043679913345</v>
+        <v>0.05656988822582037</v>
       </c>
       <c r="P7">
-        <v>0.05853043679913345</v>
+        <v>0.05656988822582035</v>
       </c>
       <c r="Q7">
-        <v>4.267858356988222</v>
+        <v>4.933999632359444</v>
       </c>
       <c r="R7">
-        <v>38.410725212894</v>
+        <v>44.40599669123499</v>
       </c>
       <c r="S7">
-        <v>0.04080579188921623</v>
+        <v>0.0454797526233635</v>
       </c>
       <c r="T7">
-        <v>0.04080579188921623</v>
+        <v>0.04547975262336348</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>3.004879</v>
       </c>
       <c r="I8">
-        <v>0.6971721743552812</v>
+        <v>0.8039569115253269</v>
       </c>
       <c r="J8">
-        <v>0.6971721743552812</v>
+        <v>0.8039569115253269</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>142.755867</v>
       </c>
       <c r="O8">
-        <v>0.6536574461270805</v>
+        <v>0.5464678959362861</v>
       </c>
       <c r="P8">
-        <v>0.6536574461270805</v>
+        <v>0.5464678959362861</v>
       </c>
       <c r="Q8">
         <v>47.662678541677</v>
@@ -948,10 +948,10 @@
         <v>428.964106875093</v>
       </c>
       <c r="S8">
-        <v>0.4557117829999369</v>
+        <v>0.4393366418646803</v>
       </c>
       <c r="T8">
-        <v>0.4557117829999369</v>
+        <v>0.4393366418646803</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>3.004879</v>
       </c>
       <c r="I9">
-        <v>0.6971721743552812</v>
+        <v>0.8039569115253269</v>
       </c>
       <c r="J9">
-        <v>0.6971721743552812</v>
+        <v>0.8039569115253269</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.555122999999999</v>
+        <v>13.80191933333334</v>
       </c>
       <c r="N9">
-        <v>16.665369</v>
+        <v>41.40575800000001</v>
       </c>
       <c r="O9">
-        <v>0.07630819502014174</v>
+        <v>0.1585007882996995</v>
       </c>
       <c r="P9">
-        <v>0.07630819502014174</v>
+        <v>0.1585007882996994</v>
       </c>
       <c r="Q9">
-        <v>5.564157481705665</v>
+        <v>13.82436585480911</v>
       </c>
       <c r="R9">
-        <v>50.07741733535099</v>
+        <v>124.419292693282</v>
       </c>
       <c r="S9">
-        <v>0.05319995024331906</v>
+        <v>0.1274278042357561</v>
       </c>
       <c r="T9">
-        <v>0.05319995024331906</v>
+        <v>0.127427804235756</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>3.004879</v>
       </c>
       <c r="I10">
-        <v>0.6971721743552812</v>
+        <v>0.8039569115253269</v>
       </c>
       <c r="J10">
-        <v>0.6971721743552812</v>
+        <v>0.8039569115253269</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.724970666666667</v>
+        <v>12.18796133333333</v>
       </c>
       <c r="N10">
-        <v>23.174912</v>
+        <v>36.563884</v>
       </c>
       <c r="O10">
-        <v>0.106114404335759</v>
+        <v>0.1399661476381804</v>
       </c>
       <c r="P10">
-        <v>0.106114404335759</v>
+        <v>0.1399661476381803</v>
       </c>
       <c r="Q10">
-        <v>7.737534043960888</v>
+        <v>12.20778302111511</v>
       </c>
       <c r="R10">
-        <v>69.637806395648</v>
+        <v>109.870047190036</v>
       </c>
       <c r="S10">
-        <v>0.07398001000117657</v>
+        <v>0.1125267517732894</v>
       </c>
       <c r="T10">
-        <v>0.07398001000117657</v>
+        <v>0.1125267517732894</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>3.004879</v>
       </c>
       <c r="I11">
-        <v>0.6971721743552812</v>
+        <v>0.8039569115253269</v>
       </c>
       <c r="J11">
-        <v>0.6971721743552812</v>
+        <v>0.8039569115253269</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.6722</v>
+        <v>8.576764333333333</v>
       </c>
       <c r="N11">
-        <v>23.0166</v>
+        <v>25.730293</v>
       </c>
       <c r="O11">
-        <v>0.1053895177178852</v>
+        <v>0.09849527990001386</v>
       </c>
       <c r="P11">
-        <v>0.1053895177178852</v>
+        <v>0.09849527990001385</v>
       </c>
       <c r="Q11">
-        <v>7.684677554599999</v>
+        <v>8.590713011060778</v>
       </c>
       <c r="R11">
-        <v>69.1620979914</v>
+        <v>77.316417099547</v>
       </c>
       <c r="S11">
-        <v>0.07347463922163246</v>
+        <v>0.07918596102823774</v>
       </c>
       <c r="T11">
-        <v>0.07347463922163246</v>
+        <v>0.07918596102823774</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3850066666666667</v>
+        <v>0.1941786666666666</v>
       </c>
       <c r="H12">
-        <v>1.15502</v>
+        <v>0.5825359999999999</v>
       </c>
       <c r="I12">
-        <v>0.2679801099557875</v>
+        <v>0.1558578043948917</v>
       </c>
       <c r="J12">
-        <v>0.2679801099557875</v>
+        <v>0.1558578043948917</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.260928666666667</v>
+        <v>4.925988333333333</v>
       </c>
       <c r="N12">
-        <v>12.782786</v>
+        <v>14.777965</v>
       </c>
       <c r="O12">
-        <v>0.05853043679913345</v>
+        <v>0.05656988822582037</v>
       </c>
       <c r="P12">
-        <v>0.05853043679913345</v>
+        <v>0.05656988822582035</v>
       </c>
       <c r="Q12">
-        <v>1.640485942857778</v>
+        <v>0.9565218465822219</v>
       </c>
       <c r="R12">
-        <v>14.76437348572</v>
+        <v>8.608696619239998</v>
       </c>
       <c r="S12">
-        <v>0.01568499288919205</v>
+        <v>0.008816858573740798</v>
       </c>
       <c r="T12">
-        <v>0.01568499288919205</v>
+        <v>0.008816858573740797</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3850066666666667</v>
+        <v>0.1941786666666666</v>
       </c>
       <c r="H13">
-        <v>1.15502</v>
+        <v>0.5825359999999999</v>
       </c>
       <c r="I13">
-        <v>0.2679801099557875</v>
+        <v>0.1558578043948917</v>
       </c>
       <c r="J13">
-        <v>0.2679801099557875</v>
+        <v>0.1558578043948917</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>142.755867</v>
       </c>
       <c r="O13">
-        <v>0.6536574461270805</v>
+        <v>0.5464678959362861</v>
       </c>
       <c r="P13">
-        <v>0.6536574461270805</v>
+        <v>0.5464678959362861</v>
       </c>
       <c r="Q13">
-        <v>18.32065350026</v>
+        <v>9.240047970967998</v>
       </c>
       <c r="R13">
-        <v>164.88588150234</v>
+        <v>83.16043173871199</v>
       </c>
       <c r="S13">
-        <v>0.1751671942865543</v>
+        <v>0.08517128643292571</v>
       </c>
       <c r="T13">
-        <v>0.1751671942865543</v>
+        <v>0.08517128643292572</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3850066666666667</v>
+        <v>0.1941786666666666</v>
       </c>
       <c r="H14">
-        <v>1.15502</v>
+        <v>0.5825359999999999</v>
       </c>
       <c r="I14">
-        <v>0.2679801099557875</v>
+        <v>0.1558578043948917</v>
       </c>
       <c r="J14">
-        <v>0.2679801099557875</v>
+        <v>0.1558578043948917</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.555122999999999</v>
+        <v>13.80191933333334</v>
       </c>
       <c r="N14">
-        <v>16.665369</v>
+        <v>41.40575800000001</v>
       </c>
       <c r="O14">
-        <v>0.07630819502014174</v>
+        <v>0.1585007882996995</v>
       </c>
       <c r="P14">
-        <v>0.07630819502014174</v>
+        <v>0.1585007882996994</v>
       </c>
       <c r="Q14">
-        <v>2.138759389153333</v>
+        <v>2.680038293587556</v>
       </c>
       <c r="R14">
-        <v>19.24883450238</v>
+        <v>24.120344642288</v>
       </c>
       <c r="S14">
-        <v>0.02044907849202526</v>
+        <v>0.0247035848592507</v>
       </c>
       <c r="T14">
-        <v>0.02044907849202526</v>
+        <v>0.0247035848592507</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3850066666666667</v>
+        <v>0.1941786666666666</v>
       </c>
       <c r="H15">
-        <v>1.15502</v>
+        <v>0.5825359999999999</v>
       </c>
       <c r="I15">
-        <v>0.2679801099557875</v>
+        <v>0.1558578043948917</v>
       </c>
       <c r="J15">
-        <v>0.2679801099557875</v>
+        <v>0.1558578043948917</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.724970666666667</v>
+        <v>12.18796133333333</v>
       </c>
       <c r="N15">
-        <v>23.174912</v>
+        <v>36.563884</v>
       </c>
       <c r="O15">
-        <v>0.106114404335759</v>
+        <v>0.1399661476381804</v>
       </c>
       <c r="P15">
-        <v>0.106114404335759</v>
+        <v>0.1399661476381803</v>
       </c>
       <c r="Q15">
-        <v>2.974165206471111</v>
+        <v>2.366642081091555</v>
       </c>
       <c r="R15">
-        <v>26.76748685824</v>
+        <v>21.299778729824</v>
       </c>
       <c r="S15">
-        <v>0.02843654974178959</v>
+        <v>0.02181481646049805</v>
       </c>
       <c r="T15">
-        <v>0.02843654974178959</v>
+        <v>0.02181481646049805</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3850066666666667</v>
+        <v>0.1941786666666666</v>
       </c>
       <c r="H16">
-        <v>1.15502</v>
+        <v>0.5825359999999999</v>
       </c>
       <c r="I16">
-        <v>0.2679801099557875</v>
+        <v>0.1558578043948917</v>
       </c>
       <c r="J16">
-        <v>0.2679801099557875</v>
+        <v>0.1558578043948917</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.6722</v>
+        <v>8.576764333333333</v>
       </c>
       <c r="N16">
-        <v>23.0166</v>
+        <v>25.730293</v>
       </c>
       <c r="O16">
-        <v>0.1053895177178852</v>
+        <v>0.09849527990001386</v>
       </c>
       <c r="P16">
-        <v>0.1053895177178852</v>
+        <v>0.09849527990001385</v>
       </c>
       <c r="Q16">
-        <v>2.953848148</v>
+        <v>1.665424662560889</v>
       </c>
       <c r="R16">
-        <v>26.584633332</v>
+        <v>14.988821963048</v>
       </c>
       <c r="S16">
-        <v>0.02824229454622629</v>
+        <v>0.01535125806847647</v>
       </c>
       <c r="T16">
-        <v>0.02824229454622629</v>
+        <v>0.01535125806847647</v>
       </c>
     </row>
   </sheetData>
